--- a/Assets/GameData/MapEvents.xlsx
+++ b/Assets/GameData/MapEvents.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>血色求助</t>
+  </si>
+  <si>
+    <t>街头的失落</t>
+  </si>
+  <si>
+    <t>hello</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1043,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1097,7 +1103,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>25</v>
@@ -1106,7 +1112,7 @@
         <v>-1</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>10000</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -1120,9 +1126,7 @@
       <c r="J2">
         <v>-1</v>
       </c>
-      <c r="K2">
-        <v>-1</v>
-      </c>
+      <c r="K2"/>
       <c r="L2">
         <v>2001</v>
       </c>
@@ -1168,9 +1172,45 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>3003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>10000</v>
+      </c>
+      <c r="G4">
+        <v>20000</v>
+      </c>
+      <c r="H4">
+        <v>-1</v>
+      </c>
+      <c r="I4">
+        <v>40000</v>
+      </c>
+      <c r="J4">
+        <v>-1</v>
+      </c>
+      <c r="K4">
+        <v>-1</v>
+      </c>
+      <c r="L4">
+        <v>-1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:1">

--- a/Assets/GameData/MapEvents.xlsx
+++ b/Assets/GameData/MapEvents.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>id</t>
   </si>
@@ -24,31 +24,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Att</t>
-  </si>
-  <si>
-    <t>Reply</t>
-  </si>
-  <si>
     <t>Limit</t>
-  </si>
-  <si>
-    <t>AttEffid</t>
-  </si>
-  <si>
-    <t>ReplyEffid</t>
-  </si>
-  <si>
-    <t>StateEffid</t>
-  </si>
-  <si>
-    <t>SpecialEffid</t>
-  </si>
-  <si>
-    <t>EvironEffid</t>
-  </si>
-  <si>
-    <t>Effid6</t>
   </si>
   <si>
     <t>Awardid</t>
@@ -1040,18 +1016,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="C1" sqref="C1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="5" max="5" width="8.88888888888889" customWidth="1"/>
+    <col min="3" max="3" width="8.88888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1070,147 +1046,53 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>3001</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>-1</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>2001</v>
       </c>
       <c r="E2">
-        <v>-1</v>
-      </c>
-      <c r="F2">
-        <v>10000</v>
-      </c>
-      <c r="G2">
-        <v>-1</v>
-      </c>
-      <c r="H2">
-        <v>-1</v>
-      </c>
-      <c r="I2">
-        <v>-1</v>
-      </c>
-      <c r="J2">
-        <v>-1</v>
-      </c>
-      <c r="K2"/>
-      <c r="L2">
-        <v>2001</v>
-      </c>
-      <c r="M2">
         <v>1000</v>
       </c>
-      <c r="N2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>3002</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>-1</v>
       </c>
-      <c r="D3">
-        <v>50</v>
-      </c>
-      <c r="E3">
-        <v>-1</v>
-      </c>
-      <c r="F3">
-        <v>-1</v>
-      </c>
-      <c r="G3">
-        <v>-1</v>
-      </c>
-      <c r="H3">
-        <v>-1</v>
-      </c>
-      <c r="I3">
-        <v>-1</v>
-      </c>
-      <c r="J3">
-        <v>-1</v>
-      </c>
-      <c r="K3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3003</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>-1</v>
       </c>
       <c r="D4">
-        <v>25</v>
-      </c>
-      <c r="E4">
         <v>-1</v>
       </c>
-      <c r="F4">
-        <v>10000</v>
-      </c>
-      <c r="G4">
-        <v>20000</v>
-      </c>
-      <c r="H4">
-        <v>-1</v>
-      </c>
-      <c r="I4">
-        <v>40000</v>
-      </c>
-      <c r="J4">
-        <v>-1</v>
-      </c>
-      <c r="K4">
-        <v>-1</v>
-      </c>
-      <c r="L4">
-        <v>-1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>18</v>
+      <c r="F4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:1">

--- a/Assets/GameData/MapEvents.xlsx
+++ b/Assets/GameData/MapEvents.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -24,13 +24,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Limit</t>
-  </si>
-  <si>
-    <t>Awardid</t>
-  </si>
-  <si>
-    <t>AwardCount</t>
+    <t>NpcTag</t>
   </si>
   <si>
     <t>Description</t>
@@ -39,13 +33,22 @@
     <t>战后士兵</t>
   </si>
   <si>
+    <t>asa</t>
+  </si>
+  <si>
     <t>某位士兵患上了战后ptsd，但他在战场上杀人无数，整日沉浸在惶恐不安中，家人请求你为他施加法阵，使他的灵魂获得片刻安宁</t>
   </si>
   <si>
     <t>血色求助</t>
   </si>
   <si>
+    <t>aw</t>
+  </si>
+  <si>
     <t>街头的失落</t>
+  </si>
+  <si>
+    <t>LosingChild</t>
   </si>
   <si>
     <t>hello</t>
@@ -1016,18 +1019,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="3" max="3" width="8.88888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1040,31 +1043,19 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>3001</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2">
-        <v>-1</v>
-      </c>
-      <c r="D2">
-        <v>2001</v>
-      </c>
-      <c r="E2">
-        <v>1000</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1072,27 +1063,24 @@
         <v>3002</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3003</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
-        <v>-1</v>
-      </c>
-      <c r="D4">
-        <v>-1</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C4" t="s">
         <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:1">

--- a/Assets/GameData/MapEvents.xlsx
+++ b/Assets/GameData/MapEvents.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="10007"/>
+    <workbookView windowWidth="19485" windowHeight="16545"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -30,28 +30,37 @@
     <t>Description</t>
   </si>
   <si>
-    <t>战后士兵</t>
-  </si>
-  <si>
-    <t>asa</t>
-  </si>
-  <si>
-    <t>某位士兵患上了战后ptsd，但他在战场上杀人无数，整日沉浸在惶恐不安中，家人请求你为他施加法阵，使他的灵魂获得片刻安宁</t>
-  </si>
-  <si>
-    <t>血色求助</t>
-  </si>
-  <si>
-    <t>aw</t>
-  </si>
-  <si>
-    <t>街头的失落</t>
-  </si>
-  <si>
-    <t>LosingChild</t>
-  </si>
-  <si>
-    <t>hello</t>
+    <t>集市巫师</t>
+  </si>
+  <si>
+    <t>巫师</t>
+  </si>
+  <si>
+    <t>在星际集市上，你遇到了一名神秘的巫师，他坐在一堆破旧的书籍前，盯着你，低声说道：「我可以教你一些东西……但你能付出什么？」</t>
+  </si>
+  <si>
+    <t>空间站流浪者</t>
+  </si>
+  <si>
+    <t>流浪者</t>
+  </si>
+  <si>
+    <t>空间站中里遇到一名神情呆滞的流浪者，他的身上布满了奇异的黑色咒纹。他喃喃自语：「她在叫我……她不会放过我……」似乎是中了某种诅咒，灵魂正在被侵蚀。</t>
+  </si>
+  <si>
+    <t>星空之矿</t>
+  </si>
+  <si>
+    <t>矿工</t>
+  </si>
+  <si>
+    <t>你发现一座浮游矿石，矿工们正小心翼翼地开采。然而，他们神情疲惫，眼神空洞</t>
+  </si>
+  <si>
+    <t>黑市商人</t>
+  </si>
+  <si>
+    <t>一个满脸伤痕的商人向你求助：「求求你……他们要杀我……！」不远处，一队宇宙管理局的人正骑乘扫帚赶来。</t>
   </si>
 </sst>
 </file>
@@ -1022,12 +1031,12 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="8.88888888888889" customWidth="1"/>
+    <col min="3" max="3" width="8.89166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1058,7 +1067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>3002</v>
       </c>
@@ -1067,6 +1076,9 @@
       </c>
       <c r="C3" t="s">
         <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1074,18 +1086,27 @@
         <v>3003</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>3004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -1164,7 +1185,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1181,7 +1202,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/GameData/MapEvents.xlsx
+++ b/Assets/GameData/MapEvents.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19485" windowHeight="16545"/>
+    <workbookView windowWidth="22368" windowHeight="10007"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
     <t>矿工</t>
   </si>
   <si>
-    <t>你发现一座浮游矿石，矿工们正小心翼翼地开采。然而，他们神情疲惫，眼神空洞</t>
+    <t>人类还要在迷茫中徘徊多久？</t>
   </si>
   <si>
     <t>黑市商人</t>
@@ -1031,12 +1031,12 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="8.89166666666667" customWidth="1"/>
+    <col min="3" max="3" width="8.88888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1185,7 +1185,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1202,7 +1202,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/GameData/MapEvents.xlsx
+++ b/Assets/GameData/MapEvents.xlsx
@@ -51,10 +51,10 @@
     <t>星空之矿</t>
   </si>
   <si>
-    <t>矿工</t>
-  </si>
-  <si>
-    <t>人类还要在迷茫中徘徊多久？</t>
+    <t>希律王</t>
+  </si>
+  <si>
+    <t>帝国将先驱驱逐至此，人类还要在迷茫中徘徊多久？</t>
   </si>
   <si>
     <t>黑市商人</t>

--- a/Assets/GameData/MapEvents.xlsx
+++ b/Assets/GameData/MapEvents.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -39,13 +39,13 @@
     <t>在星际集市上，你遇到了一名神秘的巫师，他坐在一堆破旧的书籍前，盯着你，低声说道：「我可以教你一些东西……但你能付出什么？」</t>
   </si>
   <si>
-    <t>空间站流浪者</t>
+    <t>流浪君主</t>
   </si>
   <si>
     <t>流浪者</t>
   </si>
   <si>
-    <t>空间站中里遇到一名神情呆滞的流浪者，他的身上布满了奇异的黑色咒纹。他喃喃自语：「她在叫我……她不会放过我……」似乎是中了某种诅咒，灵魂正在被侵蚀。</t>
+    <t>你曾在魔法留像机中见过它，那时帝国还未分崩离析......</t>
   </si>
   <si>
     <t>星空之矿</t>
@@ -57,10 +57,22 @@
     <t>帝国将先驱驱逐至此，人类还要在迷茫中徘徊多久？</t>
   </si>
   <si>
+    <t>地下黑市</t>
+  </si>
+  <si>
     <t>黑市商人</t>
   </si>
   <si>
     <t>一个满脸伤痕的商人向你求助：「求求你……他们要杀我……！」不远处，一队宇宙管理局的人正骑乘扫帚赶来。</t>
+  </si>
+  <si>
+    <t>反魔法动乱</t>
+  </si>
+  <si>
+    <t>反魔法协会</t>
+  </si>
+  <si>
+    <t>魔法统治着世界，守旧的帝国拒绝任何科学的发现，魔法师与普通人间的矛盾越来越大......</t>
   </si>
 </sst>
 </file>
@@ -1031,7 +1043,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1103,15 +1115,24 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>3005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:1">

--- a/Assets/GameData/MapEvents.xlsx
+++ b/Assets/GameData/MapEvents.xlsx
@@ -63,7 +63,7 @@
     <t>黑市商人</t>
   </si>
   <si>
-    <t>一个满脸伤痕的商人向你求助：「求求你……他们要杀我……！」不远处，一队宇宙管理局的人正骑乘扫帚赶来。</t>
+    <t>魔法存在的意思是什么，无数被魔法划分为的次等人蜗居在这里</t>
   </si>
   <si>
     <t>反魔法动乱</t>
@@ -1043,7 +1043,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>

--- a/Assets/GameData/MapEvents.xlsx
+++ b/Assets/GameData/MapEvents.xlsx
@@ -33,19 +33,19 @@
     <t>集市巫师</t>
   </si>
   <si>
-    <t>巫师</t>
-  </si>
-  <si>
-    <t>在星际集市上，你遇到了一名神秘的巫师，他坐在一堆破旧的书籍前，盯着你，低声说道：「我可以教你一些东西……但你能付出什么？」</t>
+    <t>Wizza</t>
+  </si>
+  <si>
+    <t>“魔法和巫术是截然不同的技术。”巫术是魔王撒旦创造的，巫师通过和魔王达成的契约而获得力量；而魔法师或术士，则是一群神职人员或哲学家，他们崇拜上帝，勤于观察“神圣之物”。坐在书前的老者身体旁的魔法纹路，便是巫师的象征。</t>
   </si>
   <si>
     <t>流浪君主</t>
   </si>
   <si>
-    <t>流浪者</t>
-  </si>
-  <si>
-    <t>你曾在魔法留像机中见过它，那时帝国还未分崩离析......</t>
+    <t>Lost</t>
+  </si>
+  <si>
+    <t>他身上布满黑色咒纹，那是一种会侵蚀灵魂的诅咒，你曾在魔法留像机中见过它，那时帝国还未分崩离析......</t>
   </si>
   <si>
     <t>星空之矿</t>
@@ -1043,7 +1043,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>

--- a/Assets/GameData/MapEvents.xlsx
+++ b/Assets/GameData/MapEvents.xlsx
@@ -1042,8 +1042,8 @@
   <sheetPr/>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
